--- a/KS_재정통계자료작성/Template/세출_지출_세목_세부사업_탬플릿.xlsx
+++ b/KS_재정통계자료작성/Template/세출_지출_세목_세부사업_탬플릿.xlsx
@@ -9,17 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="세출_지출_세목(외화)" sheetId="9" r:id="rId1"/>
-    <sheet name="세출_지출_세목_세부사업_탬플릿(외화)" sheetId="1" r:id="rId2"/>
-    <sheet name="세출_지출_세목(총액)" sheetId="6" r:id="rId3"/>
-    <sheet name="세출_지출_세목_세부사업_탬플릿(총액)" sheetId="3" r:id="rId4"/>
-    <sheet name="세출_지출_세목(총지출)" sheetId="7" r:id="rId5"/>
-    <sheet name="세출_지출_세목_세부사업_탬플릿(총지출)" sheetId="4" r:id="rId6"/>
-    <sheet name="세출_지출_세목(추경포함)" sheetId="8" r:id="rId7"/>
-    <sheet name="세출_지출_세목_세부사업_탬플릿(추경포함)" sheetId="5" r:id="rId8"/>
+    <sheet name="세출_지출_세목_세부사업_탬플릿(외화)" sheetId="1" r:id="rId1"/>
+    <sheet name="세출_지출_세목_세부사업_탬플릿(총액)" sheetId="3" r:id="rId2"/>
+    <sheet name="세출_지출_세목_세부사업_탬플릿(총지출)" sheetId="4" r:id="rId3"/>
+    <sheet name="세출_지출_세목_세부사업_탬플릿(추경포함)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="27">
   <si>
     <t>증   감</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -143,27 +139,15 @@
     <t>비    고</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>세출_지출_세목(총액)</t>
-  </si>
-  <si>
-    <t>세출_지출_세목(총지출)</t>
-  </si>
-  <si>
-    <t>세출_지출_세목(추경포함)</t>
-  </si>
-  <si>
-    <t>세출_지출_세목(외화)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -880,7 +864,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,22 +887,22 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -936,10 +920,10 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,15 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -976,6 +951,15 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,25 +1617,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2073,26 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
@@ -2515,26 +2461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
@@ -3023,30 +2950,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
